--- a/tiles analysis/120624_analysis_by_image_NEW.xlsx
+++ b/tiles analysis/120624_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0125</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09278350515463918</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006896551724137931</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04724409448818898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1338582677165354</v>
+        <v>0.007194244604316547</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15625</v>
+        <v>0.01449275362318841</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08029197080291971</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131578947368421</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>282</v>
+        <v>418</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>569</v>
       </c>
       <c r="D14" t="n">
-        <v>4.028571428571428</v>
+        <v>0.7346221441124781</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>659</v>
       </c>
       <c r="D15" t="n">
-        <v>3.597402597402597</v>
+        <v>0.5842185128983308</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178</v>
+        <v>585</v>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>544</v>
       </c>
       <c r="D16" t="n">
-        <v>3.869565217391304</v>
+        <v>1.075367647058824</v>
       </c>
     </row>
     <row r="17">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -782,12 +782,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -799,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -815,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -828,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -860,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
